--- a/dados/MIP 2018 NEREUS Adaptada.xlsx
+++ b/dados/MIP 2018 NEREUS Adaptada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cf1b0ce62cbb7c8/Julia/InsumoProduto/MIP 2018 NEREUS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanleal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{9CD1F2AD-0673-924F-817A-6F595044A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B4D227-87F4-794B-9214-7F2801BC74CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85886D49-E754-A74D-A831-8ADD8F9BFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="10" xr2:uid="{E991E22F-3431-3E45-B000-A6D300AB9D5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E991E22F-3431-3E45-B000-A6D300AB9D5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Referência" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="sp" sheetId="10" r:id="rId10"/>
     <sheet name="setores.jl" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,14 +45,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
-  <si>
-    <t xml:space="preserve">Esses dados foram obtidos juntos ao NEREUS. Cite os seguintes trabalhos ao usá-los. </t>
-  </si>
-  <si>
-    <t>Se você usar o pacote InsumoProduto.jl na Julia, cite-o seguinte trabalho.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="121">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -411,12 +427,27 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Guilhoto, J.J.M., U.A. Sesso Filho (2010). “Estimação da Matriz Insumo-Produto Utilizando Dados Preliminares das Contas Nacionais: Aplicação e Análise de Indicadores Econômicos para o Brasil em 2005”. Economia &amp; Tecnologia. UFPR/TECPAR. Ano 6, Vol 23, Out</t>
+  </si>
+  <si>
+    <t>Guilhoto, J.J.M., U.A. Sesso Filho (2005). “Estimação da Matriz Insumo-Produto a Partir de Dados Preliminares das Contas Nacionais”. Economia Aplicada. Vol. 9. N. 2. pp. 277-299. Abril-Junho.</t>
+  </si>
+  <si>
+    <t>Leal, A. (2024). InsumoProduto.jl. GitHub. https://github.com/alanleal-econ/InsumoProduto.jl</t>
+  </si>
+  <si>
+    <t>Cite o InsumoProduto.jl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esses dados de insumo-produto para 69 setores brasileiros em 2018 foram obtidos juntos ao NEREUS. Cite os seguintes trabalhos ao usá-los. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +469,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -498,10 +551,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -541,8 +595,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,6 +613,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,28 +996,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930E5962-8DA9-534F-B83C-EDC574A064D4}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="71" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:1" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="https://github.com/alanleal-econ/InsumoProduto.jl" xr:uid="{81891D3C-873F-5945-B942-ED7B19B53CAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -914,342 +1059,342 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>248886</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>83880</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>29693</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10650</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>139158</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>54076</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9411</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>66110</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10875</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>95784</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>31252</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24424</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36728</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>21569</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15191</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>46770</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12605</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>150469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>14830</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>85821</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>38142</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20560</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>54121</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>35892</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>60053</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>30907</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>46661</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>54620</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36062</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>60212</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>62516</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>48035</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>27614</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41220</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45735</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>158990</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>56301</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>293486</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>113627</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>740944</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>195718</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>13041</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>22801</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>88768</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>16612</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>156162</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>10184</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>21507</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>85882</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>122060</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>452980</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>595222</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>165753</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44033</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45243</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>34135</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>190195</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>36433</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>651180</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>303995</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>109329</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>147532</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>193696</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>25510</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>104328</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>74451</v>
       </c>
@@ -1263,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA9C66-3CB7-4544-96A6-95C7B118B39F}">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1274,342 +1419,342 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1640,10 +1785,10 @@
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -1730,10 +1875,10 @@
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="8">
@@ -1956,240 +2101,240 @@
     </row>
     <row r="3" spans="1:84" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BG3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BH3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BI3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BK3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BL3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BM3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BN3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BM3" s="12" t="s">
+      <c r="BO3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BP3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BO3" s="12" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BR3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BS3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BR3" s="12" t="s">
+      <c r="BT3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BS3" s="12" t="s">
+      <c r="BU3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BT3" s="12" t="s">
+      <c r="BV3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BU3" s="12" t="s">
+      <c r="BW3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="BX3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BW3" s="12" t="s">
+      <c r="BY3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BX3" s="12" t="s">
+      <c r="BZ3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BY3" s="12" t="s">
+      <c r="CA3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BZ3" s="12" t="s">
+      <c r="CB3" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="CA3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB3" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="CC3" s="5"/>
       <c r="CD3" s="5"/>
@@ -2443,7 +2588,7 @@
         <v>1911</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -2695,7 +2840,7 @@
         <v>1912</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -2947,7 +3092,7 @@
         <v>1913</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -3199,7 +3344,7 @@
         <v>1914</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -3451,7 +3596,7 @@
         <v>1915</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -3703,7 +3848,7 @@
         <v>1916</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>6</v>
@@ -3955,7 +4100,7 @@
         <v>1917</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -4207,7 +4352,7 @@
         <v>1918</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>8</v>
@@ -4459,7 +4604,7 @@
         <v>1919</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
         <v>9</v>
@@ -4711,7 +4856,7 @@
         <v>1921</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
@@ -4963,7 +5108,7 @@
         <v>1922</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>11</v>
@@ -5215,7 +5360,7 @@
         <v>1923</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5">
         <v>12</v>
@@ -5467,7 +5612,7 @@
         <v>1924</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5">
         <v>13</v>
@@ -5719,7 +5864,7 @@
         <v>2801</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5">
         <v>14</v>
@@ -5971,7 +6116,7 @@
         <v>2802</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
@@ -6223,7 +6368,7 @@
         <v>5801</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5">
         <v>16</v>
@@ -6475,7 +6620,7 @@
         <v>5802</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5">
         <v>17</v>
@@ -6727,7 +6872,7 @@
         <v>6801</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5">
         <v>18</v>
@@ -6979,7 +7124,7 @@
         <v>7911</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5">
         <v>19</v>
@@ -7231,7 +7376,7 @@
         <v>7921</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5">
         <v>20</v>
@@ -7483,7 +7628,7 @@
         <v>10911</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5">
         <v>21</v>
@@ -7735,7 +7880,7 @@
         <v>10912</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5">
         <v>22</v>
@@ -7987,7 +8132,7 @@
         <v>10913</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5">
         <v>23</v>
@@ -8239,7 +8384,7 @@
         <v>10914</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5">
         <v>24</v>
@@ -8491,7 +8636,7 @@
         <v>10915</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5">
         <v>25</v>
@@ -8743,7 +8888,7 @@
         <v>10916</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="5">
         <v>26</v>
@@ -8995,7 +9140,7 @@
         <v>10921</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5">
         <v>27</v>
@@ -9247,7 +9392,7 @@
         <v>10931</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5">
         <v>28</v>
@@ -9499,7 +9644,7 @@
         <v>10932</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="5">
         <v>29</v>
@@ -9751,7 +9896,7 @@
         <v>10933</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5">
         <v>30</v>
@@ -10003,7 +10148,7 @@
         <v>10934</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5">
         <v>31</v>
@@ -10255,7 +10400,7 @@
         <v>10935</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5">
         <v>32</v>
@@ -10507,7 +10652,7 @@
         <v>10936</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5">
         <v>33</v>
@@ -10759,7 +10904,7 @@
         <v>10937</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5">
         <v>34</v>
@@ -11011,7 +11156,7 @@
         <v>11001</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5">
         <v>35</v>
@@ -11263,7 +11408,7 @@
         <v>12001</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="5">
         <v>36</v>
@@ -11515,7 +11660,7 @@
         <v>13001</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5">
         <v>37</v>
@@ -11767,7 +11912,7 @@
         <v>13002</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5">
         <v>38</v>
@@ -12019,7 +12164,7 @@
         <v>13003</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="5">
         <v>39</v>
@@ -12271,7 +12416,7 @@
         <v>14001</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5">
         <v>40</v>
@@ -12523,7 +12668,7 @@
         <v>15001</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5">
         <v>41</v>
@@ -12775,7 +12920,7 @@
         <v>16001</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5">
         <v>42</v>
@@ -13027,7 +13172,7 @@
         <v>17001</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="5">
         <v>43</v>
@@ -13279,7 +13424,7 @@
         <v>17002</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="5">
         <v>44</v>
@@ -13531,7 +13676,7 @@
         <v>18001</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="5">
         <v>45</v>
@@ -13783,7 +13928,7 @@
         <v>19911</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="5">
         <v>46</v>
@@ -14035,7 +14180,7 @@
         <v>19912</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="5">
         <v>47</v>
@@ -14287,7 +14432,7 @@
         <v>19913</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5">
         <v>48</v>
@@ -14539,7 +14684,7 @@
         <v>19914</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="5">
         <v>49</v>
@@ -14791,7 +14936,7 @@
         <v>19915</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="5">
         <v>50</v>
@@ -15043,7 +15188,7 @@
         <v>19916</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="5">
         <v>51</v>
@@ -15295,7 +15440,7 @@
         <v>19921</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="5">
         <v>52</v>
@@ -15547,7 +15692,7 @@
         <v>20911</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="5">
         <v>53</v>
@@ -15799,7 +15944,7 @@
         <v>20912</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="5">
         <v>54</v>
@@ -16051,7 +16196,7 @@
         <v>20913</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="5">
         <v>55</v>
@@ -16303,7 +16448,7 @@
         <v>20914</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="5">
         <v>56</v>
@@ -16555,7 +16700,7 @@
         <v>20921</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="5">
         <v>57</v>
@@ -16807,7 +16952,7 @@
         <v>20922</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" s="5">
         <v>58</v>
@@ -17059,7 +17204,7 @@
         <v>20923</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="5">
         <v>59</v>
@@ -17311,7 +17456,7 @@
         <v>20931</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="5">
         <v>60</v>
@@ -17563,7 +17708,7 @@
         <v>21001</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="5">
         <v>61</v>
@@ -17815,7 +17960,7 @@
         <v>22001</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="5">
         <v>62</v>
@@ -18067,7 +18212,7 @@
         <v>22002</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="5">
         <v>63</v>
@@ -18319,7 +18464,7 @@
         <v>23001</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="5">
         <v>64</v>
@@ -18571,7 +18716,7 @@
         <v>23002</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C69" s="5">
         <v>65</v>
@@ -18823,7 +18968,7 @@
         <v>23003</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="5">
         <v>66</v>
@@ -19075,7 +19220,7 @@
         <v>24911</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="5">
         <v>67</v>
@@ -19327,7 +19472,7 @@
         <v>97001</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="5">
         <v>68</v>
@@ -19577,7 +19722,7 @@
     <row r="73" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="5">
         <v>69</v>
@@ -19827,7 +19972,7 @@
     <row r="74" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C74" s="5">
         <v>70</v>
@@ -20077,7 +20222,7 @@
     <row r="75" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="5">
         <v>71</v>
@@ -20327,7 +20472,7 @@
     <row r="76" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" s="5">
         <v>72</v>
@@ -20577,7 +20722,7 @@
     <row r="77" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C77" s="5">
         <v>73</v>
@@ -20827,7 +20972,7 @@
     <row r="78" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5">
         <v>74</v>
@@ -21077,7 +21222,7 @@
     <row r="79" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79" s="5">
         <v>75</v>
@@ -21327,7 +21472,7 @@
     <row r="80" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C80" s="5">
         <v>76</v>
@@ -21577,7 +21722,7 @@
     <row r="81" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81" s="5">
         <v>77</v>
@@ -21827,7 +21972,7 @@
     <row r="82" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82" s="5">
         <v>78</v>
@@ -22076,10 +22221,10 @@
     </row>
     <row r="83" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C83" s="5">
         <v>79</v>
@@ -22328,10 +22473,10 @@
     </row>
     <row r="84" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C84" s="5">
         <v>80</v>
@@ -22580,10 +22725,10 @@
     </row>
     <row r="85" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C85" s="5">
         <v>81</v>
@@ -22833,7 +22978,7 @@
     <row r="86" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" s="5">
         <v>82</v>
@@ -23083,7 +23228,7 @@
     <row r="87" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C87" s="5">
         <v>83</v>
@@ -23332,10 +23477,10 @@
     </row>
     <row r="88" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="5">
         <v>84</v>
@@ -23584,10 +23729,10 @@
     </row>
     <row r="89" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="5">
         <v>85</v>
@@ -23837,7 +23982,7 @@
     <row r="90" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="5">
         <v>86</v>
@@ -24087,7 +24232,7 @@
     <row r="91" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" s="5">
         <v>87</v>
@@ -24336,10 +24481,10 @@
     </row>
     <row r="92" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92" s="5">
         <v>88</v>
@@ -24588,10 +24733,10 @@
     </row>
     <row r="93" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" s="5">
         <v>89</v>
@@ -24840,10 +24985,10 @@
     </row>
     <row r="94" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C94" s="5">
         <v>90</v>
@@ -25092,10 +25237,10 @@
     </row>
     <row r="95" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C95" s="5">
         <v>91</v>
@@ -25344,10 +25489,10 @@
     </row>
     <row r="96" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" s="5">
         <v>92</v>
@@ -25597,7 +25742,7 @@
     <row r="97" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" s="5">
         <v>93</v>
@@ -27900,7 +28045,7 @@
     </row>
     <row r="108" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" s="2">
         <f>D96-D73</f>
@@ -28163,7 +28308,7 @@
         <v>193696</v>
       </c>
       <c r="BQ108" s="2">
-        <f t="shared" ref="BQ108:BT108" si="1">BQ96-BQ73</f>
+        <f t="shared" ref="BQ108:BS108" si="1">BQ96-BQ73</f>
         <v>25510</v>
       </c>
       <c r="BR108" s="2">
@@ -28178,7 +28323,7 @@
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
